--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slitrk6-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Slitrk6</t>
+  </si>
+  <si>
+    <t>Ptprs</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Slitrk6</t>
-  </si>
-  <si>
-    <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +543,10 @@
         <v>5.542538</v>
       </c>
       <c r="I2">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>7.625032723552223</v>
+        <v>6.571163463156223</v>
       </c>
       <c r="R2">
-        <v>68.62529451197001</v>
+        <v>59.140471168406</v>
       </c>
       <c r="S2">
-        <v>0.04498407468721313</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="T2">
-        <v>0.04498407468721314</v>
+        <v>0.04280930450251701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>5.542538</v>
       </c>
       <c r="I3">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>87.29315062083555</v>
+        <v>87.29315062083556</v>
       </c>
       <c r="R3">
-        <v>785.6383555875199</v>
+        <v>785.6383555875201</v>
       </c>
       <c r="S3">
-        <v>0.5149881645859297</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="T3">
-        <v>0.5149881645859297</v>
+        <v>0.5686906263805704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>5.542538</v>
       </c>
       <c r="I4">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>25.72901257061222</v>
+        <v>45.32268314192178</v>
       </c>
       <c r="R4">
-        <v>231.56111313551</v>
+        <v>407.904148277296</v>
       </c>
       <c r="S4">
-        <v>0.1517889647253183</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="T4">
-        <v>0.1517889647253183</v>
+        <v>0.2952646900921412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,10 +729,10 @@
         <v>5.542538</v>
       </c>
       <c r="I5">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8013421105175124</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>15.184425785408</v>
+        <v>14.31148959883422</v>
       </c>
       <c r="R5">
-        <v>136.659832068672</v>
+        <v>128.803406389508</v>
       </c>
       <c r="S5">
-        <v>0.08958090651905125</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="T5">
-        <v>0.08958090651905125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.4580103333333334</v>
-      </c>
-      <c r="H6">
-        <v>1.374031</v>
-      </c>
-      <c r="I6">
-        <v>0.1986578894824876</v>
-      </c>
-      <c r="J6">
-        <v>0.1986578894824877</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>4.127188333333334</v>
-      </c>
-      <c r="N6">
-        <v>12.381565</v>
-      </c>
-      <c r="O6">
-        <v>0.05613591760223621</v>
-      </c>
-      <c r="P6">
-        <v>0.05613591760223621</v>
-      </c>
-      <c r="Q6">
-        <v>1.890294904279445</v>
-      </c>
-      <c r="R6">
-        <v>17.012654138515</v>
-      </c>
-      <c r="S6">
-        <v>0.01115184291502307</v>
-      </c>
-      <c r="T6">
-        <v>0.01115184291502308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.4580103333333334</v>
-      </c>
-      <c r="H7">
-        <v>1.374031</v>
-      </c>
-      <c r="I7">
-        <v>0.1986578894824876</v>
-      </c>
-      <c r="J7">
-        <v>0.1986578894824877</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>47.24901333333333</v>
-      </c>
-      <c r="N7">
-        <v>141.74704</v>
-      </c>
-      <c r="O7">
-        <v>0.6426570597336345</v>
-      </c>
-      <c r="P7">
-        <v>0.6426570597336345</v>
-      </c>
-      <c r="Q7">
-        <v>21.64053634647111</v>
-      </c>
-      <c r="R7">
-        <v>194.76482711824</v>
-      </c>
-      <c r="S7">
-        <v>0.1276688951477048</v>
-      </c>
-      <c r="T7">
-        <v>0.1276688951477049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.4580103333333334</v>
-      </c>
-      <c r="H8">
-        <v>1.374031</v>
-      </c>
-      <c r="I8">
-        <v>0.1986578894824876</v>
-      </c>
-      <c r="J8">
-        <v>0.1986578894824877</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>13.92629833333334</v>
-      </c>
-      <c r="N8">
-        <v>41.77889500000001</v>
-      </c>
-      <c r="O8">
-        <v>0.1894184303222152</v>
-      </c>
-      <c r="P8">
-        <v>0.1894184303222152</v>
-      </c>
-      <c r="Q8">
-        <v>6.378388541749445</v>
-      </c>
-      <c r="R8">
-        <v>57.40549687574501</v>
-      </c>
-      <c r="S8">
-        <v>0.03762946559689691</v>
-      </c>
-      <c r="T8">
-        <v>0.03762946559689691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.4580103333333334</v>
-      </c>
-      <c r="H9">
-        <v>1.374031</v>
-      </c>
-      <c r="I9">
-        <v>0.1986578894824876</v>
-      </c>
-      <c r="J9">
-        <v>0.1986578894824877</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>8.218847999999999</v>
-      </c>
-      <c r="N9">
-        <v>24.656544</v>
-      </c>
-      <c r="O9">
-        <v>0.1117885923419141</v>
-      </c>
-      <c r="P9">
-        <v>0.1117885923419141</v>
-      </c>
-      <c r="Q9">
-        <v>3.764317312096</v>
-      </c>
-      <c r="R9">
-        <v>33.878855808864</v>
-      </c>
-      <c r="S9">
-        <v>0.02220768582286283</v>
-      </c>
-      <c r="T9">
-        <v>0.02220768582286283</v>
+        <v>0.0932353790247713</v>
       </c>
     </row>
   </sheetData>
